--- a/test_results_master.xlsx
+++ b/test_results_master.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -654,10 +654,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
+      <c r="J3" t="n">
+        <v>2.22</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -740,10 +738,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>2.14</t>
-        </is>
+      <c r="J4" t="n">
+        <v>2.14</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -826,10 +822,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
+      <c r="J5" t="n">
+        <v>1.99</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -912,10 +906,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
+      <c r="J6" t="n">
+        <v>1.85</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -998,10 +990,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>1.94</t>
-        </is>
+      <c r="J7" t="n">
+        <v>1.94</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -1084,10 +1074,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
+      <c r="J8" t="n">
+        <v>1.85</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1170,10 +1158,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>1.86</t>
-        </is>
+      <c r="J9" t="n">
+        <v>1.86</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1256,10 +1242,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
+      <c r="J10" t="n">
+        <v>1.84</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1342,10 +1326,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
+      <c r="J11" t="n">
+        <v>2.34</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1428,10 +1410,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>3.71</t>
-        </is>
+      <c r="J12" t="n">
+        <v>3.71</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1512,10 +1492,8 @@
           <t>Medium</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
+      <c r="J13" t="n">
+        <v>1.22</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1548,6 +1526,469 @@
         </is>
       </c>
       <c r="Q13" t="inlineStr">
+        <is>
+          <t>Bookworms Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TL-T552</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Kiểm tra presence của form, email, password, toggle, social buttons và submit</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Bước 1: Mở trang login
+Bước 2: Chờ form #singinForm
+Bước 3: Kiểm tra các phần tử</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CHROME / LOCAL</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Test execution completed</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>No errors</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>D:\TestScript\screenshots\TL-T552_20251210_171703.png</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>UX</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>http://localhost/bookstore/public/login</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Bookworms Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TL-T710</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nhấn toggle password để hiện/ẩn mật khẩu</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Mở trang login
+Click toggle lần 1 (should show)
+Click toggle lần 2 (should hide)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CHROME / LOCAL</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Test execution completed</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>No errors</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>D:\TestScript\screenshots\TL-T710_20251210_171703.png</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>UX</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>http://localhost/bookstore/public/login</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Bookworms Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TL-T663</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Gửi form login với credential sai -&gt; hiện error message</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Mở trang login</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CHROME / LOCAL</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Test execution completed</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>driver = &lt;selenium.webdriver.chrome.webdriver.WebDriver (session="cb60333ca6ede06de9542182e7a7c1eb")&gt;
+log_step = &lt;function log_step.&lt;locals&gt;._log at 0x000002179181AB60&gt;
+request = &lt;FixtureRequest for &lt;Function test_login_with_invalid_credentials_shows_error&gt;&gt;
+    @pytest.mark.tc(title="Login failure with invalid credentials",
+                   desc="Gửi form login với credential sai -&gt; hiện error message",
+                   pre="Route /login tồn tại",
+                   expected="Hiển thị message lỗi (text-danger) hoặc không redirect thành công")
+    def test_login_with_invalid_credentials_shows_error(driver, log_step, request):
+        """
+        Steps:
+        1) Mở /login.
+        2) Điền email/password sai.
+        3) Click 'Đăng nhập'.
+        4) Chờ và kiểm tra: page không redirect tới home (url vẫn chứa 'login') và xuất hiện text có class 'text-danger' hoặc error message.
+        Expected: Hiển thị lỗi.
+        """
+        wait = WebDriverWait(driver, WAIT)
+        try:
+            log_step("Mở trang login")
+            driver.get(BASE_URL.rstrip("/") + "/login")
+            wait.until(EC.visibility_of_element_located((By.CSS_SELECTOR, "form#singinForm")))
+            email = driver.find_element(By.CSS_SELECTOR, "input#email")
+            pwd = driver.find_element(By.CSS_SELECTOR, "input#password")
+            # use clearly invalid creds
+            email.clear(); email.send_keys("invalid_user@example.invalid")
+            pwd.clear(); pwd.send_keys("wrongpassword123")
+            btn = driver.find_element(By.CSS_SELECTOR, "button[type='submit']")
+            _safe_click(driver, btn)
+            time.sleep(0.8)
+            cur = driver.current_url.lower()
+            body = driver.find_element(By.TAG_NAME, "body").text.lower()
+            # look for error messages showing in view (view uses 'text-danger fw-bold' for errors)
+            errs = driver.find_elements(By.CSS_SELECTOR, ".text-danger, .help-block, .alert-danger")
+&gt;           assert "login" in cur or errs or "sai" in body or "không" in body or "invalid" in body, \
+                f"Không thấy lỗi khi dùng credential sai. url={cur}, body_snippet={body[:150]}"
+E               AssertionError: Không thấy lỗi khi dùng credential sai. url=http://localhost/bookstore/public/home, body_snippet=faqs
+E                 |
+E                 help
+E                 |
+E                 support
+E                 trang chủ
+E                 giới thiệu
+E                 sản phẩm
+E                 bookworm
+E                 👤tài khoản
+E                 🛒 giỏ hàng
+E                 khuyến mãi
+E                 sản phẩm mới
+E                 sách giáo dục
+E                 truyện tran
+E               assert ('login' in 'http://localhost/bookstore/public/home' or [] or 'sai' in 'faqs\n|\nhelp\n|\nsupport\ntrang chủ\ngiới thiệu\nsản phẩm\nbookworm\n👤tài khoản\n🛒 giỏ hàng\nkhuyến mãi\n... hàng\nliên hệ\n© bookworms store. dự án học phần lập trình web. thiết kế và cài đặt bởi nhóm 11 - k25cntta.' or 'không' in 'faqs\n|\nhelp\n|\nsupport\ntrang chủ\ngiới thiệu\nsản phẩm\nbookworm\n👤tài khoản\n🛒 giỏ hàng\nkhuyến mãi\n... hàng\nliên hệ\n© bookworms store. dự án học phần lập trình web. thiết kế và cài đặt bởi nhóm 11 - k25cntta.' or 'invalid' in 'faqs\n|\nhelp\n|\nsupport\ntrang chủ\ngiới thiệu\nsản phẩm\nbookworm\n👤tài khoản\n🛒 giỏ hàng\nkhuyến mãi\n... hàng\nliên hệ\n© bookworms store. dự án học phần lập trình web. thiết kế và cài đặt bởi nhóm 11 - k25cntta.')
+test_login.py:128: AssertionError</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>D:\TestScript\screenshots\TL-T663_20251210_171703.png</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>UX</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>http://localhost/bookstore/public/home</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Bookworms Store</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TL-T538</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Đăng nhập thành công bằng tài khoản test (env vars TEST_USER_EMAIL/TEST_USER_PASS)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Steps:
+1) Mở /login.
+2) Điền email/password (từ env vars TEST_USER_EMAIL, TEST_USER_PASS).
+3) Click Đăng nhập.
+4) Chờ redirect: kiểm tra URL không còn chứa 'login' và có indicator user (logout/profile) hoặc redirect về BASE_URL.
+Expected: Đăng nhập thành công.</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CHROME / LOCAL</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Test execution completed</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>No errors</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>D:\TestScript\screenshots\TL-T538_20251210_171703.png</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>data:,</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>UX</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>data:,</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TL-T145</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Đăng nhập thành công bằng tài khoản test (env vars TEST_USER_EMAIL/TEST_USER_PASS)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Mở trang login</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CHROME / LOCAL</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Test execution completed</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>No errors</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>chrome</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>local</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>D:\TestScript\screenshots\TL-T145_20251210_172344.png</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Home</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>UX</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>http://localhost/bookstore/public/home</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
         <is>
           <t>Bookworms Store</t>
         </is>
